--- a/Project MRA/Project MRA.xlsx
+++ b/Project MRA/Project MRA.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project MRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Programming\GIT\Qinshift-homeworks\Project MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C750C80-A0FB-44B3-AB87-F8CC272228DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{57939284-FE2A-4FFB-B3C9-4F78F91E9DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
     <sheet name="Private" sheetId="2" r:id="rId2"/>
     <sheet name="DB" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>Contact details</t>
   </si>
@@ -978,13 +978,22 @@
       </rPr>
       <t>Number</t>
     </r>
+  </si>
+  <si>
+    <t>https://codepen.io/z-/pen/OBPJKK</t>
+  </si>
+  <si>
+    <t>https://uiverse.io/</t>
+  </si>
+  <si>
+    <t>Ovie se cisto html I css, bez tugju templejti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1018,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1027,13 +1044,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1345,146 +1365,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F805C87-DC12-4E75-B822-DD7CC48285A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>48</v>
       </c>
@@ -1495,16 +1515,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4098D6-032B-4119-8577-6D03EF784E77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>35</v>
       </c>
@@ -1512,22 +1532,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>28</v>
       </c>
@@ -1535,7 +1555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -1543,7 +1563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -1551,7 +1571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +1579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>30</v>
       </c>
@@ -1567,7 +1587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -1575,7 +1595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>58</v>
       </c>
@@ -1583,7 +1603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -1591,7 +1611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -1599,7 +1619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>32</v>
       </c>
@@ -1607,7 +1627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>33</v>
       </c>
@@ -1615,7 +1635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>31</v>
       </c>
@@ -1623,7 +1643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>55</v>
       </c>
@@ -1647,7 +1667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>62</v>
       </c>
@@ -1655,7 +1675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>56</v>
       </c>
@@ -1663,7 +1683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>57</v>
       </c>
@@ -1671,12 +1691,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -1687,20 +1707,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0B96F5-D1D4-4A0C-9ACE-B6C77A9A6973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -1720,7 +1740,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>67</v>
       </c>
@@ -1731,7 +1751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -1742,7 +1762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -1753,7 +1773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>69</v>
       </c>
@@ -1764,7 +1784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -1775,7 +1795,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>50</v>
       </c>
@@ -1786,7 +1806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>49</v>
       </c>
@@ -1797,7 +1817,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>70</v>
       </c>
@@ -1808,7 +1828,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>79</v>
       </c>
@@ -1816,7 +1836,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -1830,7 +1850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -1841,7 +1861,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -1849,7 +1869,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -1863,7 +1883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1874,7 +1894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>71</v>
       </c>
@@ -1882,7 +1902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -1896,7 +1916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -1904,7 +1924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>74</v>
       </c>
@@ -1912,7 +1932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>70</v>
       </c>
@@ -1920,12 +1940,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1936,7 +1956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>67</v>
       </c>
@@ -1944,7 +1964,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -1952,7 +1972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>75</v>
       </c>
@@ -1960,7 +1980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -1968,7 +1988,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>78</v>
       </c>
@@ -1976,7 +1996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>70</v>
       </c>
@@ -1984,7 +2004,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
         <v>83</v>
       </c>
@@ -1992,4 +2012,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project MRA/Project MRA.xlsx
+++ b/Project MRA/Project MRA.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
   <si>
     <t>Contact details</t>
   </si>
@@ -987,6 +987,24 @@
   </si>
   <si>
     <t>Ovie se cisto html I css, bez tugju templejti</t>
+  </si>
+  <si>
+    <t>072 569 188 - Halil</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/community/file/1191619795087038017/cleaning-service-free-ui-template</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>https://nicepage.com/website-templates/preview/house-repair-and-contruction-60525?device=desktop</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/community/design-templates?editor_type=figma</t>
+  </si>
+  <si>
+    <t>AI tool  sto kradi elementi od kod?</t>
   </si>
 </sst>
 </file>
@@ -2016,34 +2034,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B7"/>
+  <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Project MRA/Project MRA.xlsx
+++ b/Project MRA/Project MRA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Programming\GIT\Qinshift-homeworks\Project MRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA80EA4-0F5C-4DD6-81A9-66AD1AFEA674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>Contact details</t>
   </si>
@@ -1005,12 +1006,15 @@
   </si>
   <si>
     <t>AI tool  sto kradi elementi od kod?</t>
+  </si>
+  <si>
+    <t>temp - Mitko</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1383,146 +1387,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>48</v>
       </c>
@@ -1533,16 +1537,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>35</v>
       </c>
@@ -1550,22 +1554,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>28</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>30</v>
       </c>
@@ -1605,7 +1609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>58</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>32</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>33</v>
       </c>
@@ -1653,7 +1657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>34</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>55</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>62</v>
       </c>
@@ -1693,7 +1697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>56</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>57</v>
       </c>
@@ -1709,12 +1713,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="N26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
       <c r="N27" t="s">
         <v>41</v>
       </c>
@@ -1725,20 +1729,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>67</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>66</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>68</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>69</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>50</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>49</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>70</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>79</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -1887,7 +1891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -1901,7 +1905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>71</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>73</v>
       </c>
@@ -1942,7 +1946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>74</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>70</v>
       </c>
@@ -1958,12 +1962,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>67</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>75</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>72</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>78</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>70</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>83</v>
       </c>
@@ -2033,36 +2037,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -2070,15 +2074,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -2086,18 +2090,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
-    <hyperlink ref="B11" r:id="rId4"/>
-    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/Project MRA/Project MRA.xlsx
+++ b/Project MRA/Project MRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Desktop\Tenderi\WEB\GIT\Qinshift-homeworks\Project MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA80EA4-0F5C-4DD6-81A9-66AD1AFEA674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292DAE56-E572-4CB4-9C38-7F0648C72638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="DB" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2041,7 +2041,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
